--- a/Resources/2000/Advanced_Percentile_2000.xlsx
+++ b/Resources/2000/Advanced_Percentile_2000.xlsx
@@ -1372,25 +1372,25 @@
     <t>montrer01</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
+    <t>Shaquille O'Neal</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Kevin Garnett</t>
@@ -1402,7 +1402,7 @@
     <t>Kobe Bryant</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Eddie Jones</t>
@@ -1417,16 +1417,16 @@
     <t>Sam Cassell</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Reggie Miller*</t>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
@@ -1498,13 +1498,13 @@
     <t>Danny Fortson</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Terry Porter</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Bonzi Wells</t>
@@ -1525,13 +1525,13 @@
     <t>Austin Croshere</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Mikki Moore</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Peja Stojakovic</t>
@@ -1540,19 +1540,19 @@
     <t>Aaron Williams</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Kenny Anderson</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Keith Van Horn</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Lawrence Funderburke</t>
@@ -1609,7 +1609,7 @@
     <t>Wally Szczerbiak</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Latrell Sprewell</t>
@@ -1651,7 +1651,7 @@
     <t>Eddie Robinson</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Bo Outlaw</t>
@@ -1840,7 +1840,7 @@
     <t>Bryant Stith</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Carlos Rogers</t>
@@ -1903,7 +1903,7 @@
     <t>Aaron McKie</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Ira Bowman</t>
@@ -2518,7 +2518,7 @@
     <t>Rusty LaRue</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Jud Buechler</t>
